--- a/biology/Zoologie/Hamster_de_Roborovski/Hamster_de_Roborovski.xlsx
+++ b/biology/Zoologie/Hamster_de_Roborovski/Hamster_de_Roborovski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phodopus roborovskii
-Le Hamster de Roborovski (Phodopus roborovskii), ou Hamster nain de Roborovski, parfois orthographié Roborowski[1], est une espèce de mammifères rongeurs de la famille des Cricetidae. C'est un hamster nain qui a été découvert par Konstantin Satunin en 1903 dans les steppes et les zones désertiques de Mongolie et du nord de la Chine. C'est un micromammifère craintif qui est parfois élevé en captivité dans les laboratoires ou comme animal de compagnie.
+Le Hamster de Roborovski (Phodopus roborovskii), ou Hamster nain de Roborovski, parfois orthographié Roborowski, est une espèce de mammifères rongeurs de la famille des Cricetidae. C'est un hamster nain qui a été découvert par Konstantin Satunin en 1903 dans les steppes et les zones désertiques de Mongolie et du nord de la Chine. C'est un micromammifère craintif qui est parfois élevé en captivité dans les laboratoires ou comme animal de compagnie.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Nomenclature et systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’animal doit son nom à un explorateur, le géographe Vsevolod Ivanovitch Roborovski (1856-1910), qui a notamment collaboré avec le naturaliste Nikolaï Mikhaïlovitch Prjevalski. Les noms binomiaux synonymes de Phodopus roborovskii sont P. bedfordiae, P. praedilectus, P. przewalskii[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’animal doit son nom à un explorateur, le géographe Vsevolod Ivanovitch Roborovski (1856-1910), qui a notamment collaboré avec le naturaliste Nikolaï Mikhaïlovitch Prjevalski. Les noms binomiaux synonymes de Phodopus roborovskii sont P. bedfordiae, P. praedilectus, P. przewalskii.
 </t>
         </is>
       </c>
@@ -543,12 +557,12 @@
           <t>Morphologie et caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le poids de cette espèce varie significativement en fonction des saisons. Il diminue en septembre, atteignant 17 g pour les femelles et 19 g pour les mâles. Il augmente en décembre pour atteindre son maximum à la fin du printemps. Les femelles pèsent alors 21 g et les mâles 27 g en moyenne. Il s'agit de la plus petite espèce de hamster au monde, l'adulte mesure entre 5,3 et 8,1 cm de long. La queue mesure de 7 à 11 mm[2].
-Comme tous les hamsters nains, le Hamster de Roborovski a quatre doigts aux pattes antérieures, et possède des abajoues, qui lui permettent principalement à transporter de la nourriture. Il possède une ouïe fine et un odorat très développé. Leurs taille moyenne est de 5-7 cm[3],[4].
-Aspect physique
-L'épaisse fourrure du Hamster de Roborovski est de couleur marron doré sur le dos, tandis que la base du poil est foncé. La moitié inférieure du corps est blanche. Noirs et ronds, les yeux sont surmontés de 2 petites marques blanches qui évoquent des sourcils. Il existe diverses variantes de coloration, notamment des individus entièrement blancs avec, toujours à la base, le poil foncé.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le poids de cette espèce varie significativement en fonction des saisons. Il diminue en septembre, atteignant 17 g pour les femelles et 19 g pour les mâles. Il augmente en décembre pour atteindre son maximum à la fin du printemps. Les femelles pèsent alors 21 g et les mâles 27 g en moyenne. Il s'agit de la plus petite espèce de hamster au monde, l'adulte mesure entre 5,3 et 8,1 cm de long. La queue mesure de 7 à 11 mm.
+Comme tous les hamsters nains, le Hamster de Roborovski a quatre doigts aux pattes antérieures, et possède des abajoues, qui lui permettent principalement à transporter de la nourriture. Il possède une ouïe fine et un odorat très développé. Leurs taille moyenne est de 5-7 cm,.
 </t>
         </is>
       </c>
@@ -574,12 +588,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Alimentation</t>
+          <t>Morphologie et caractéristiques</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ils se nourrissent principalement de graines, qui représentent 70 à 90 % de leur alimentation. Ils consomment notamment les graines des espèces Alyssum desertorum, Caragana spp., Nitraria spp., Dracocephalum peregrinum, Astragalus spp. et Carex spp. Ils se nourrissent également de feuilles et des tiges[2]. Les insectes font partie intégrante de leur alimentation.
+          <t>Aspect physique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épaisse fourrure du Hamster de Roborovski est de couleur marron doré sur le dos, tandis que la base du poil est foncé. La moitié inférieure du corps est blanche. Noirs et ronds, les yeux sont surmontés de 2 petites marques blanches qui évoquent des sourcils. Il existe diverses variantes de coloration, notamment des individus entièrement blancs avec, toujours à la base, le poil foncé.
 </t>
         </is>
       </c>
@@ -605,17 +625,87 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils se nourrissent principalement de graines, qui représentent 70 à 90 % de leur alimentation. Ils consomment notamment les graines des espèces Alyssum desertorum, Caragana spp., Nitraria spp., Dracocephalum peregrinum, Astragalus spp. et Carex spp. Ils se nourrissent également de feuilles et des tiges. Les insectes font partie intégrante de leur alimentation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hamster_de_Roborovski</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamster_de_Roborovski</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La période de reproduction court de février à octobre. Elle n'est pas influencée par la température ni la luminosité, ce qui suggérerait que le Hamster de Roborovski peut se reproduire toute l'année. La gestation dure de 20 à 22 jours. Le nombre de petits par portée est de 3,6 à 3,9 en moyenne. À la naissance, le sex-ratio est de 1 (même nombre de mâles et de femelles en moyenne). Ce taux reste constant chez tous les groupes d'âges. Les petits naissent aveugles et quasiment nus. Ils sont couverts de fourrure et ouvrent les yeux vers 14 jours environ. La mère arrête de les allaiter au bout 18 jours. Les petits sont indépendants entre 18 et 30 jours. Les femelles atteignent la maturité sexuelle au bout de 2 mois et les mâles après 2 mois et demi. La femelle peut avoir jusqu'à 4 portées par an[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La période de reproduction court de février à octobre. Elle n'est pas influencée par la température ni la luminosité, ce qui suggérerait que le Hamster de Roborovski peut se reproduire toute l'année. La gestation dure de 20 à 22 jours. Le nombre de petits par portée est de 3,6 à 3,9 en moyenne. À la naissance, le sex-ratio est de 1 (même nombre de mâles et de femelles en moyenne). Ce taux reste constant chez tous les groupes d'âges. Les petits naissent aveugles et quasiment nus. Ils sont couverts de fourrure et ouvrent les yeux vers 14 jours environ. La mère arrête de les allaiter au bout 18 jours. Les petits sont indépendants entre 18 et 30 jours. Les femelles atteignent la maturité sexuelle au bout de 2 mois et les mâles après 2 mois et demi. La femelle peut avoir jusqu'à 4 portées par an.
 Stérilité pour la femelle : 1 an 1/2[réf. nécessaire]
 Stérilité pour le mâle : 6 mois[réf. nécessaire]
-Longévité : entre 1,5 et 2 ans[5]
-Développement corporel[réf. nécessaire]
-Le premier jour, les bébés ont les yeux et les oreilles fermés, une peau rose sans poils et des membres peu développés.
+Longévité : entre 1,5 et 2 ans
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hamster_de_Roborovski</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamster_de_Roborovski</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Développement corporel[réf. nécessaire]</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier jour, les bébés ont les yeux et les oreilles fermés, une peau rose sans poils et des membres peu développés.
 Le sixième jour, la peau a commencé à se pigmenter, les premiers poils apparaissent
 Le huitième jour, les petits hamsters peuvent utiliser leurs abajoues, se nettoyer et faire leurs besoins sans l'aide de leur mère.
 Le quatorzième jour, ils quittent le nid mais restent avec leur mère. Ils jouent entre eux.
@@ -626,81 +716,267 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Hamster_de_Roborovski</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hamster_de_Roborovski</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hamster_de_Roborovski</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamster_de_Roborovski</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le hamster de Roborovski est présent au Kazakhstan, en Russie, en Mongolie et en Chine. Il vit dans les déserts de sable et les prairies tempérées[6]. En Mongolie, son habitat est typiquement constitué d'herbacées et graminées de 75 cm de haut, notamment Caragana tibetica, Ammopiptanthus mongolicus, Cynanchum komarovii et Zygophyllum pterocarpum[2].
-Prédateurs
-Comme la plupart des rongeurs, ses prédateurs naturels sont les oiseaux de proie, les renards, les chiens et les chats.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Hamster_de_Roborovski</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hamster_de_Roborovski</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le hamster de Roborovski est présent au Kazakhstan, en Russie, en Mongolie et en Chine. Il vit dans les déserts de sable et les prairies tempérées. En Mongolie, son habitat est typiquement constitué d'herbacées et graminées de 75 cm de haut, notamment Caragana tibetica, Ammopiptanthus mongolicus, Cynanchum komarovii et Zygophyllum pterocarpum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hamster_de_Roborovski</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamster_de_Roborovski</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Prédateurs</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme la plupart des rongeurs, ses prédateurs naturels sont les oiseaux de proie, les renards, les chiens et les chats.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hamster_de_Roborovski</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamster_de_Roborovski</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Utilisation par l'homme</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Animal de laboratoire
-C'est un animal très intelligent[7]. Il est souvent utilisé comme cobaye dans de nombreuses études[8],[9].
-Animal de compagnie
-Ce hamster était très peu connu comme animal de compagnie jusque dans les années 1990. Il fait partie des Nouveaux animaux de compagnie (NAC).
-Maintenance en captivité
-Comme tous les rongeurs maintenus en captivité et en particulier les hamsters, cette espèce nécessite un espace de vie adapté, de taille suffisante (120 × 60 cm minimum d'un seul tenant avec espace de barreaux au maximum de 0,8 cm), qui résiste notamment à leurs dents et à leur capacité d'évasion. Le hamster Roborovski est un hamster particulier qui ne s’empêche de creuser, donc il est préférable de mettre 30 cm de litière minimum.
-Les hamsters de Roborovski sont des animaux nerveux et timides qui ne conviennent pas aux jeunes enfants. Ils sont difficilement apprivoisables. Ils n'aiment en général pas trop être pris dans les mains ou sortis de leur cage, mais au bout de quelque temps le hamster voudra sortir et explorer autour de son habitat. Mais le tempérament peut considérablement varier entre les individus : certains sont très affectueux et d'autres refusent farouchement tout contact. Cependant, ils peuvent être apprivoisés avec patience et un processus d'apprentissage de renforcement positif[10].
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Animal de laboratoire</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un animal très intelligent. Il est souvent utilisé comme cobaye dans de nombreuses études,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hamster_de_Roborovski</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamster_de_Roborovski</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Utilisation par l'homme</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Animal de compagnie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce hamster était très peu connu comme animal de compagnie jusque dans les années 1990. Il fait partie des Nouveaux animaux de compagnie (NAC).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hamster_de_Roborovski</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamster_de_Roborovski</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Utilisation par l'homme</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Maintenance en captivité</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme tous les rongeurs maintenus en captivité et en particulier les hamsters, cette espèce nécessite un espace de vie adapté, de taille suffisante (120 × 60 cm minimum d'un seul tenant avec espace de barreaux au maximum de 0,8 cm), qui résiste notamment à leurs dents et à leur capacité d'évasion. Le hamster Roborovski est un hamster particulier qui ne s’empêche de creuser, donc il est préférable de mettre 30 cm de litière minimum.
+Les hamsters de Roborovski sont des animaux nerveux et timides qui ne conviennent pas aux jeunes enfants. Ils sont difficilement apprivoisables. Ils n'aiment en général pas trop être pris dans les mains ou sortis de leur cage, mais au bout de quelque temps le hamster voudra sortir et explorer autour de son habitat. Mais le tempérament peut considérablement varier entre les individus : certains sont très affectueux et d'autres refusent farouchement tout contact. Cependant, ils peuvent être apprivoisés avec patience et un processus d'apprentissage de renforcement positif.
 Ce sont des animaux nocturnes qui se réveillent le soir. Les hamsters de Roborovski ne mordent pas quand ils ont peur mais préfèrent fuir ; ils courent très vite par rapport à leur taille (jusqu'à 10 km/h). C'est une espèce solitaire[réf. nécessaire] et territoriale, on ne peut pas les faire cohabiter, car  y a toujours des problèmes comme : un nouveau hamster  dominant, nourriture, territoire et il leur arrive de se battre, très souvent jusqu'à la mort. Donc si il y a eu une naissance séparez-les à 1 mois jusqu’à 2 mois maximum.
-Les hamsters en mal traitance
-Beaucoup d’hamsters qui sont en captivité sont maltraités, car les personnes adoptent leur hamster sans réfléchir à leurs besoins. Un habitat mal pensé en captivité sera source de souffrance pour le hamster. Par exemple, une cage de moins de 7000c
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Hamster_de_Roborovski</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamster_de_Roborovski</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Utilisation par l'homme</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Les hamsters en mal traitance</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Beaucoup d’hamsters qui sont en captivité sont maltraités, car les personnes adoptent leur hamster sans réfléchir à leurs besoins. Un habitat mal pensé en captivité sera source de souffrance pour le hamster. Par exemple, une cage de moins de 7000c
           m
             2
     {\displaystyle m^{2}}
 , une mauvaise profondeur de litière (comme 2cm de litière....), ou bien une nourriture à base d’extrudés, l’absence de roue, ou une roue non-adaptée (moins de 20cm de diamètre), pas de cachettes de bonne qualité, matériaux en plastique, pas de différentes sur-litières, absence de foin, etc… Sont autant d’exemples d’environnement non-adapté à ces petits rongeurs.
-Élevage
-Les hamsters de Roborovski se reproduisent assez bien en captivité, par rapport aux autres espèces de hamsters : nombreuses portées par an, de 1 à 6 bébés par portée. En revanche, la ménopause de la femelle a lieu relativement tôt[réf. souhaitée]. Comme chez toutes les espèces de hamsters, la femelle peut dévorer ses petits si elle est stressée. Les bébés ne doivent pas être touchés par une main humaine dans les 14 premiers jours et les 12 premiers jours si votre hamster vous fait énormément confiance, suivant leur naissance, sinon la mère ne reconnaîtrait plus leur odeur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hamster_de_Roborovski</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamster_de_Roborovski</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Utilisation par l'homme</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Les hamsters en mal traitance</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Élevage</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les hamsters de Roborovski se reproduisent assez bien en captivité, par rapport aux autres espèces de hamsters : nombreuses portées par an, de 1 à 6 bébés par portée. En revanche, la ménopause de la femelle a lieu relativement tôt[réf. souhaitée]. Comme chez toutes les espèces de hamsters, la femelle peut dévorer ses petits si elle est stressée. Les bébés ne doivent pas être touchés par une main humaine dans les 14 premiers jours et les 12 premiers jours si votre hamster vous fait énormément confiance, suivant leur naissance, sinon la mère ne reconnaîtrait plus leur odeur.
 </t>
         </is>
       </c>
